--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem1/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem1/17/word_level_predictions_17.xlsx
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -4553,57 +4553,57 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Tag_B_as_E</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="2" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="inlineStr">
+      <c r="D88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" t="b">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K88" t="b">
-        <v>1</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="G88" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" s="2" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" t="b">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K89" t="b">
-        <v>1</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="D89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" s="2" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E90" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" t="b">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K90" t="b">
-        <v>1</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -6725,11 +6725,11 @@
         </is>
       </c>
       <c r="I121" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K121" s="2" t="b">
@@ -6777,11 +6777,11 @@
         </is>
       </c>
       <c r="I122" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K122" s="2" t="b">
@@ -6829,11 +6829,11 @@
         </is>
       </c>
       <c r="I123" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K123" s="2" t="b">
@@ -6881,11 +6881,11 @@
         </is>
       </c>
       <c r="I124" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K124" s="2" t="b">
@@ -6933,11 +6933,11 @@
         </is>
       </c>
       <c r="I125" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K125" s="2" t="b">
@@ -6985,11 +6985,11 @@
         </is>
       </c>
       <c r="I126" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K126" s="2" t="b">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G127" s="2" t="b">
@@ -7037,11 +7037,11 @@
         </is>
       </c>
       <c r="I127" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K127" s="2" t="b">
@@ -7054,468 +7054,468 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
+      <c r="A128" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C128" s="2" t="inlineStr">
         <is>
           <t>Initiating</t>
         </is>
       </c>
-      <c r="D128" t="n">
+      <c r="D128" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="E128" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G128" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I128" t="b">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K128" t="b">
-        <v>1</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
+      <c r="A129" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C129" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D129" t="n">
+      <c r="D129" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I129" t="b">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K129" t="b">
-        <v>1</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
+      <c r="A130" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C130" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D130" t="n">
+      <c r="D130" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G130" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I130" t="b">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K130" t="b">
-        <v>1</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
+      <c r="A131" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C131" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D131" t="n">
+      <c r="D131" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" s="2" t="inlineStr">
         <is>
           <t>will</t>
         </is>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="E132" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
+      <c r="A133" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C133" s="2" t="inlineStr">
         <is>
           <t>now</t>
         </is>
       </c>
-      <c r="D133" t="n">
+      <c r="D133" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G133" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
+      <c r="A134" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B134" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C134" s="2" t="inlineStr">
         <is>
           <t>trigger</t>
         </is>
       </c>
-      <c r="D134" t="n">
+      <c r="D134" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G134" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
+      <c r="A135" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B135" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C135" s="2" t="inlineStr">
         <is>
           <t>Auto</t>
         </is>
       </c>
-      <c r="D135" t="n">
+      <c r="D135" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G135" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
+      <c r="A136" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B136" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C136" s="2" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D136" t="n">
+      <c r="D136" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="E136" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="F136" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G136" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="G136" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G159" t="b">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G160" t="b">
@@ -8765,7 +8765,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -9446,106 +9446,106 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="D174" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" t="inlineStr">
+      <c r="D174" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="F174" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G174" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I174" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K174" t="b">
-        <v>1</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="G174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>Obstructed</t>
         </is>
       </c>
-      <c r="D175" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" t="inlineStr">
+      <c r="D175" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="F176" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G176" s="2" t="b">
@@ -9597,7 +9597,7 @@
       </c>
       <c r="L176" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -9833,7 +9833,7 @@
       </c>
       <c r="F181" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G181" s="2" t="b">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="L181" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="F182" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G182" s="2" t="b">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="L182" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="F184" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G184" s="2" t="b">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="L184" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="F185" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G185" s="2" t="b">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="L185" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10093,7 +10093,7 @@
       </c>
       <c r="F186" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G186" s="2" t="b">
@@ -10117,7 +10117,7 @@
       </c>
       <c r="L186" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G189" t="b">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -10301,7 +10301,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G190" t="b">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -10977,291 +10977,291 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>18</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>6</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>18</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>18</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E204" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B205" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C205" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F205" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L207" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G215" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
       </c>
       <c r="F216" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G216" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="L216" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F235" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G235" s="2" t="b">
@@ -12665,265 +12665,265 @@
       </c>
       <c r="L235" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
+      <c r="A236" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B236" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="C236" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D236" t="n">
+      <c r="D236" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E236" t="inlineStr">
+      <c r="E236" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B240" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13918,260 +13918,260 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="2" t="n">
+      <c r="A260" t="n">
         <v>22</v>
       </c>
-      <c r="B260" s="2" t="inlineStr">
+      <c r="B260" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C260" s="2" t="inlineStr">
+      <c r="C260" t="inlineStr">
         <is>
           <t>Ambient</t>
         </is>
       </c>
-      <c r="D260" s="2" t="n">
+      <c r="D260" t="n">
         <v>6</v>
       </c>
-      <c r="E260" s="2" t="inlineStr">
+      <c r="E260" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F260" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G260" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L260" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G260" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I260" t="b">
+        <v>1</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K260" t="b">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="2" t="n">
+      <c r="A261" t="n">
         <v>22</v>
       </c>
-      <c r="B261" s="2" t="inlineStr">
+      <c r="B261" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C261" s="2" t="inlineStr">
+      <c r="C261" t="inlineStr">
         <is>
           <t>Light</t>
         </is>
       </c>
-      <c r="D261" s="2" t="n">
+      <c r="D261" t="n">
         <v>7</v>
       </c>
-      <c r="E261" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F261" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G261" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L261" s="2" t="inlineStr">
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G261" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I261" t="b">
+        <v>1</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K261" t="b">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2" t="n">
+      <c r="A262" t="n">
         <v>22</v>
       </c>
-      <c r="B262" s="2" t="inlineStr">
+      <c r="B262" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C262" s="2" t="inlineStr">
+      <c r="C262" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D262" s="2" t="n">
+      <c r="D262" t="n">
         <v>8</v>
       </c>
-      <c r="E262" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F262" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G262" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L262" s="2" t="inlineStr">
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G262" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I262" t="b">
+        <v>1</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K262" t="b">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="2" t="n">
+      <c r="A263" t="n">
         <v>22</v>
       </c>
-      <c r="B263" s="2" t="inlineStr">
+      <c r="B263" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C263" s="2" t="inlineStr">
+      <c r="C263" t="inlineStr">
         <is>
           <t>too</t>
         </is>
       </c>
-      <c r="D263" s="2" t="n">
+      <c r="D263" t="n">
         <v>9</v>
       </c>
-      <c r="E263" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F263" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G263" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L263" s="2" t="inlineStr">
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G263" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I263" t="b">
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K263" t="b">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="2" t="n">
+      <c r="A264" t="n">
         <v>22</v>
       </c>
-      <c r="B264" s="2" t="inlineStr">
+      <c r="B264" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C264" s="2" t="inlineStr">
+      <c r="C264" t="inlineStr">
         <is>
           <t>weak</t>
         </is>
       </c>
-      <c r="D264" s="2" t="n">
+      <c r="D264" t="n">
         <v>10</v>
       </c>
-      <c r="E264" s="2" t="inlineStr">
+      <c r="E264" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F264" s="2" t="inlineStr">
+      <c r="F264" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G264" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L264" s="2" t="inlineStr">
+      <c r="G264" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I264" t="b">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K264" t="b">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem1/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem1/17/word_level_predictions_17.xlsx
@@ -4529,81 +4529,81 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Home Point Recorded Taking off .</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>4</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Home Point Recorded Taking off .</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" t="n">
         <v>9</v>
       </c>
-      <c r="B88" s="2" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" s="2" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" s="2" t="inlineStr">
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" s="2" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L88" s="2" t="inlineStr">
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" t="n">
         <v>9</v>
       </c>
-      <c r="B89" s="2" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" s="2" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L89" s="2" t="inlineStr">
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" t="n">
         <v>9</v>
       </c>
-      <c r="B90" s="2" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" s="2" t="n">
+      <c r="D90" t="n">
         <v>2</v>
       </c>
-      <c r="E90" s="2" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L90" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6725,11 +6725,11 @@
         </is>
       </c>
       <c r="I121" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K121" s="2" t="b">
@@ -6777,11 +6777,11 @@
         </is>
       </c>
       <c r="I122" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K122" s="2" t="b">
@@ -6829,11 +6829,11 @@
         </is>
       </c>
       <c r="I123" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K123" s="2" t="b">
@@ -6881,11 +6881,11 @@
         </is>
       </c>
       <c r="I124" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K124" s="2" t="b">
@@ -6933,11 +6933,11 @@
         </is>
       </c>
       <c r="I125" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K125" s="2" t="b">
@@ -6985,11 +6985,11 @@
         </is>
       </c>
       <c r="I126" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K126" s="2" t="b">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G127" s="2" t="b">
@@ -7037,11 +7037,11 @@
         </is>
       </c>
       <c r="I127" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K127" s="2" t="b">
@@ -7054,468 +7054,468 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" t="n">
         <v>12</v>
       </c>
-      <c r="B128" s="2" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C128" s="2" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>Initiating</t>
         </is>
       </c>
-      <c r="D128" s="2" t="n">
+      <c r="D128" t="n">
         <v>7</v>
       </c>
-      <c r="E128" s="2" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F128" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G128" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L128" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" t="n">
         <v>12</v>
       </c>
-      <c r="B129" s="2" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C129" s="2" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D129" s="2" t="n">
+      <c r="D129" t="n">
         <v>8</v>
       </c>
-      <c r="E129" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F129" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G129" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L129" s="2" t="inlineStr">
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" t="n">
         <v>12</v>
       </c>
-      <c r="B130" s="2" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C130" s="2" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D130" s="2" t="n">
+      <c r="D130" t="n">
         <v>9</v>
       </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F130" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G130" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L130" s="2" t="inlineStr">
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" t="n">
         <v>12</v>
       </c>
-      <c r="B131" s="2" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C131" s="2" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D131" s="2" t="n">
+      <c r="D131" t="n">
         <v>10</v>
       </c>
-      <c r="E131" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F131" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G131" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131" s="2" t="inlineStr">
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" t="n">
         <v>12</v>
       </c>
-      <c r="B132" s="2" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C132" s="2" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>will</t>
         </is>
       </c>
-      <c r="D132" s="2" t="n">
+      <c r="D132" t="n">
         <v>11</v>
       </c>
-      <c r="E132" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="inlineStr">
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" t="n">
         <v>12</v>
       </c>
-      <c r="B133" s="2" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C133" s="2" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>now</t>
         </is>
       </c>
-      <c r="D133" s="2" t="n">
+      <c r="D133" t="n">
         <v>12</v>
       </c>
-      <c r="E133" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F133" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G133" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" s="2" t="inlineStr">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" t="n">
         <v>12</v>
       </c>
-      <c r="B134" s="2" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C134" s="2" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>trigger</t>
         </is>
       </c>
-      <c r="D134" s="2" t="n">
+      <c r="D134" t="n">
         <v>13</v>
       </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G134" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" s="2" t="inlineStr">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" t="n">
         <v>12</v>
       </c>
-      <c r="B135" s="2" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C135" s="2" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>Auto</t>
         </is>
       </c>
-      <c r="D135" s="2" t="n">
+      <c r="D135" t="n">
         <v>14</v>
       </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G135" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" s="2" t="inlineStr">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" t="n">
         <v>12</v>
       </c>
-      <c r="B136" s="2" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C136" s="2" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D136" s="2" t="n">
+      <c r="D136" t="n">
         <v>15</v>
       </c>
-      <c r="E136" s="2" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F136" s="2" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G136" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" s="2" t="inlineStr">
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G159" t="b">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G160" t="b">
@@ -8765,7 +8765,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9446,106 +9446,106 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" t="n">
         <v>16</v>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="D174" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" s="2" t="inlineStr">
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F174" s="2" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G174" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" s="2" t="inlineStr">
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" t="n">
         <v>16</v>
       </c>
-      <c r="B175" s="2" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C175" s="2" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>Obstructed</t>
         </is>
       </c>
-      <c r="D175" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" s="2" t="inlineStr">
+      <c r="D175" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F175" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G175" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L175" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="F176" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G176" s="2" t="b">
@@ -9597,7 +9597,7 @@
       </c>
       <c r="L176" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9833,7 +9833,7 @@
       </c>
       <c r="F181" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G181" s="2" t="b">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="L181" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="F182" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G182" s="2" t="b">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="L182" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="F184" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G184" s="2" t="b">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="L184" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="F185" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G185" s="2" t="b">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="L185" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10093,7 +10093,7 @@
       </c>
       <c r="F186" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G186" s="2" t="b">
@@ -10117,7 +10117,7 @@
       </c>
       <c r="L186" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G189" t="b">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10301,7 +10301,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G190" t="b">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10977,291 +10977,291 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E204" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
+      <c r="I205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
+      <c r="I206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B207" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>6</v>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
+      <c r="I207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>18</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G215" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
       </c>
       <c r="F216" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G216" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="L216" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12641,289 +12641,289 @@
       </c>
       <c r="F235" s="2" t="inlineStr">
         <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>20</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>20</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>20</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B236" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C236" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D236" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B237" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13918,260 +13918,260 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="n">
+      <c r="A260" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="B260" s="2" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
+      <c r="C260" s="2" t="inlineStr">
         <is>
           <t>Ambient</t>
         </is>
       </c>
-      <c r="D260" t="n">
+      <c r="D260" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E260" t="inlineStr">
+      <c r="E260" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G260" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I260" t="b">
-        <v>1</v>
-      </c>
-      <c r="J260" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K260" t="b">
-        <v>1</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F260" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G260" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J260" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L260" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
+      <c r="A261" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="B261" s="2" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
+      <c r="C261" s="2" t="inlineStr">
         <is>
           <t>Light</t>
         </is>
       </c>
-      <c r="D261" t="n">
+      <c r="D261" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G261" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I261" t="b">
-        <v>1</v>
-      </c>
-      <c r="J261" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K261" t="b">
-        <v>1</v>
-      </c>
-      <c r="L261" t="inlineStr">
+      <c r="E261" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F261" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G261" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J261" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L261" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n">
+      <c r="A262" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B262" s="2" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
+      <c r="C262" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D262" t="n">
+      <c r="D262" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G262" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I262" t="b">
-        <v>1</v>
-      </c>
-      <c r="J262" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K262" t="b">
-        <v>1</v>
-      </c>
-      <c r="L262" t="inlineStr">
+      <c r="E262" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F262" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G262" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J262" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L262" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="n">
+      <c r="A263" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="B263" s="2" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
+      <c r="C263" s="2" t="inlineStr">
         <is>
           <t>too</t>
         </is>
       </c>
-      <c r="D263" t="n">
+      <c r="D263" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G263" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I263" t="b">
-        <v>1</v>
-      </c>
-      <c r="J263" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K263" t="b">
-        <v>1</v>
-      </c>
-      <c r="L263" t="inlineStr">
+      <c r="E263" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F263" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G263" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J263" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L263" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="n">
+      <c r="A264" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="B264" s="2" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
+      <c r="C264" s="2" t="inlineStr">
         <is>
           <t>weak</t>
         </is>
       </c>
-      <c r="D264" t="n">
+      <c r="D264" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E264" t="inlineStr">
+      <c r="E264" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
+      <c r="F264" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G264" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I264" t="b">
-        <v>1</v>
-      </c>
-      <c r="J264" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K264" t="b">
-        <v>1</v>
-      </c>
-      <c r="L264" t="inlineStr">
+      <c r="G264" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J264" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L264" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
